--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
   <si>
     <t>altova</t>
   </si>
@@ -187,6 +187,9 @@
       </rPr>
       <t>IDM_VS_CTXT_CODEWIN</t>
     </r>
+  </si>
+  <si>
+    <t>IDM_VS_CTXT_PEEKRESULT</t>
   </si>
 </sst>
 </file>
@@ -541,25 +544,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -581,8 +585,11 @@
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -605,7 +612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -628,7 +635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -651,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -674,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,7 +704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -720,7 +727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -743,7 +750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -766,7 +773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -789,7 +796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -812,7 +819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -835,7 +842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -858,7 +865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -881,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -904,7 +911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -927,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -967,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -230,12 +230,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -262,6 +268,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,7 +556,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -835,10 +844,10 @@
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -855,8 +864,8 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>altova</t>
   </si>
@@ -135,9 +135,6 @@
     <t>open all files of associated suffixes in app - could be done but low pty</t>
   </si>
   <si>
-    <t>TODO TODO TODO</t>
-  </si>
-  <si>
     <t>prob inappropriate but need to test (low pty) if the app understands a .sln file</t>
   </si>
   <si>
@@ -190,6 +187,21 @@
   </si>
   <si>
     <t>IDM_VS_CTXT_PEEKRESULT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open folder (within soln explr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IDM_VS_CTXT_FOLDERNODE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -270,7 +282,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -565,14 +580,15 @@
     <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -580,25 +596,28 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -620,8 +639,11 @@
       <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -643,8 +665,11 @@
       <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -666,8 +691,11 @@
       <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -689,8 +717,11 @@
       <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -712,8 +743,11 @@
       <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -727,16 +761,19 @@
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -750,16 +787,19 @@
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -773,20 +813,23 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -798,14 +841,17 @@
       <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -827,8 +873,11 @@
       <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -844,14 +893,17 @@
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -864,17 +916,20 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -890,14 +945,17 @@
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -913,14 +971,17 @@
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -936,14 +997,17 @@
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,14 +1020,17 @@
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -976,15 +1043,18 @@
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>28</v>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -996,15 +1066,18 @@
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>28</v>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H19">
+  <sortState ref="A2:I19">
     <sortCondition ref="A2:A19"/>
     <sortCondition ref="B2:B19"/>
   </sortState>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
   <si>
     <t>altova</t>
   </si>
@@ -72,9 +72,6 @@
     <t>xamarin studio</t>
   </si>
   <si>
-    <t>atom</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -93,8 +90,83 @@
     <t>app</t>
   </si>
   <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>inappropriate</t>
+  </si>
+  <si>
+    <t>open all files of associated suffixes in app - could be done but low pty</t>
+  </si>
+  <si>
+    <t>prob inappropriate but need to test (low pty) if the app understands a .sln file</t>
+  </si>
+  <si>
+    <t>IDM_VS_CTXT_PEEKRESULT</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">project in soln explr
+      <t xml:space="preserve">right-click individual file in code editor window
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IDM_VS_CTXT_CODEWIN</t>
+    </r>
+  </si>
+  <si>
+    <t>done (app opens just that file)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">right-click an individual file within soln explr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IDM_VS_CTXT_ITEMNODE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">right-click a folder within soln explr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IDM_VS_CTXT_FOLDERNODE</t>
+    </r>
+  </si>
+  <si>
+    <t>done - should not be allowed</t>
+  </si>
+  <si>
+    <t>TODO - app opens all files of correct suffix</t>
+  </si>
+  <si>
+    <t>done - app opens all files of correct suffix</t>
+  </si>
+  <si>
+    <t>done - app opens just that specifically selected folder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">right-click a project in soln explr
 </t>
     </r>
     <r>
@@ -108,6 +180,15 @@
     </r>
   </si>
   <si>
+    <t>DONE BUT NEEDS TESTING - app opens just that specifically selected project folder</t>
+  </si>
+  <si>
+    <t>need to test how the app handles .csproj files</t>
+  </si>
+  <si>
+    <t>done - app opens all files of correct suffix in the project folder</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">sln in soln explr
 </t>
@@ -115,100 +196,18 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>tba</t>
     </r>
   </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>inappropriate</t>
-  </si>
-  <si>
-    <t>open all files of associated suffixes in app - could be done but low pty</t>
-  </si>
-  <si>
-    <t>prob inappropriate but need to test (low pty) if the app understands a .sln file</t>
-  </si>
-  <si>
-    <t>prob inappropriate but need to test (low pty) if the app understands a .csproj file</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">individual file (within soln explr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_ITEMNODE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">all files in a folder (within soln explr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_FOLDERNODE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">individual file in code editor window
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_CODEWIN</t>
-    </r>
-  </si>
-  <si>
-    <t>IDM_VS_CTXT_PEEKRESULT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">open folder (within soln explr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_FOLDERNODE</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +240,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -279,13 +289,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,518 +584,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I19">
-    <sortCondition ref="A2:A19"/>
-    <sortCondition ref="B2:B19"/>
+  <sortState ref="A2:H18">
+    <sortCondition ref="A2:A18"/>
+    <sortCondition ref="B2:B18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -587,18 +587,18 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -859,7 +859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -882,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -928,7 +928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -252,7 +252,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,7 +261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -289,19 +307,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,7 +638,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -622,332 +673,332 @@
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -961,13 +1012,13 @@
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -981,18 +1032,18 @@
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1001,13 +1052,13 @@
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,12 +231,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -296,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -307,15 +301,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -325,7 +316,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -334,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -343,7 +334,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -352,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,7 +629,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -673,332 +664,332 @@
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1012,13 +1003,13 @@
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1032,18 +1023,18 @@
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1052,13 +1043,13 @@
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>altova</t>
   </si>
@@ -105,57 +106,9 @@
     <t>IDM_VS_CTXT_PEEKRESULT</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">right-click individual file in code editor window
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_CODEWIN</t>
-    </r>
-  </si>
-  <si>
     <t>done (app opens just that file)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">right-click an individual file within soln explr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_ITEMNODE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">right-click a folder within soln explr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_FOLDERNODE</t>
-    </r>
-  </si>
-  <si>
-    <t>done - should not be allowed</t>
-  </si>
-  <si>
     <t>TODO - app opens all files of correct suffix</t>
   </si>
   <si>
@@ -163,21 +116,6 @@
   </si>
   <si>
     <t>done - app opens just that specifically selected folder</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">right-click a project in soln explr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IDM_VS_CTXT_PROJNODE</t>
-    </r>
   </si>
   <si>
     <t>DONE BUT NEEDS TESTING - app opens just that specifically selected project folder</t>
@@ -196,18 +134,52 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>tba</t>
     </r>
   </si>
+  <si>
+    <t>IDM_VS_CTXT_CODEWIN</t>
+  </si>
+  <si>
+    <t>IDM_VS_CTXT_ITEMNODE</t>
+  </si>
+  <si>
+    <t>IDM_VS_CTXT_FOLDERNODE</t>
+  </si>
+  <si>
+    <t>IDM_VS_CTXT_PROJNODE</t>
+  </si>
+  <si>
+    <t>right-click individual file in code editor window</t>
+  </si>
+  <si>
+    <t>right-click an individual file within soln explr</t>
+  </si>
+  <si>
+    <t>right-click a folder within soln explr</t>
+  </si>
+  <si>
+    <t>right-click a project in soln explr</t>
+  </si>
+  <si>
+    <t>23 in *.vsct</t>
+  </si>
+  <si>
+    <t>6 in *.vsct</t>
+  </si>
+  <si>
+    <t>should not be allowed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +201,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
@@ -245,8 +211,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +269,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -298,52 +302,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -640,12 +635,38 @@
     <col min="4" max="4" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.5703125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="55.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="55.5703125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="55.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="55.5703125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="55.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="55.5703125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" style="8" customWidth="1"/>
+    <col min="25" max="25" width="55.5703125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="55.5703125" style="8" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="8" customWidth="1"/>
+    <col min="29" max="29" width="55.5703125" style="8" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" style="8" customWidth="1"/>
+    <col min="31" max="31" width="55.5703125" style="8" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" style="8" customWidth="1"/>
+    <col min="33" max="33" width="55.5703125" style="8" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -653,410 +674,905 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+    </row>
+    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F9" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+    </row>
+    <row r="11" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+    </row>
+    <row r="12" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+    </row>
+    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="G13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+    </row>
+    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+    </row>
+    <row r="15" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+    </row>
+    <row r="16" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+    </row>
+    <row r="17" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14" t="s">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H18">
-    <sortCondition ref="A2:A18"/>
-    <sortCondition ref="B2:B18"/>
+  <sortState ref="A4:H20">
+    <sortCondition ref="A4:A20"/>
+    <sortCondition ref="B4:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>altova</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>not allowed</t>
+  </si>
+  <si>
+    <t>TODO ?</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +269,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -327,6 +336,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,7 +627,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1197,10 +1212,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>22</v>
@@ -1817,11 +1832,11 @@
       <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>21</v>
+      <c r="F23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>22</v>
@@ -1838,10 +1853,10 @@
       <c r="C24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="16" t="s">

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -226,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +269,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -339,9 +333,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,7 +618,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1832,10 +1823,10 @@
       <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="13" t="s">

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1796,11 +1796,11 @@
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>21</v>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>22</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1202,11 +1202,11 @@
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>44</v>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>22</v>
@@ -1581,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>24</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -166,7 +166,7 @@
     <t>not allowed</t>
   </si>
   <si>
-    <t>TODO ?</t>
+    <t>TODO test at spur</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +269,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -332,7 +344,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,7 +633,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1256,10 +1271,10 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -1310,10 +1325,10 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -1364,10 +1379,10 @@
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -1418,11 +1433,11 @@
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>21</v>
+      <c r="F15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>21</v>
@@ -1472,10 +1487,10 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -1526,10 +1541,10 @@
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -1851,10 +1866,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>22</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
   <si>
     <t>altova</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>TODO test at spur</t>
+  </si>
+  <si>
+    <t>*Need to exclude bin &amp; obj folders when performing at the project node</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +274,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -344,10 +341,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -645,38 +639,39 @@
     <col min="5" max="5" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="55.5703125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="55.5703125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="55.5703125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="55.5703125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="22.7109375" style="9" customWidth="1"/>
-    <col min="20" max="20" width="55.5703125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="55.5703125" style="9" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="9" customWidth="1"/>
-    <col min="24" max="24" width="55.5703125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" style="9" customWidth="1"/>
-    <col min="26" max="26" width="55.5703125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" style="9" customWidth="1"/>
-    <col min="28" max="28" width="55.5703125" style="9" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" style="9" customWidth="1"/>
-    <col min="30" max="30" width="55.5703125" style="9" customWidth="1"/>
-    <col min="31" max="31" width="22.7109375" style="9" customWidth="1"/>
-    <col min="32" max="32" width="55.5703125" style="9" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" style="9" customWidth="1"/>
-    <col min="34" max="34" width="55.5703125" style="9" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" style="9" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="55.5703125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="55.5703125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="55.5703125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="55.5703125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" style="9" customWidth="1"/>
+    <col min="21" max="21" width="55.5703125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="9" customWidth="1"/>
+    <col min="23" max="23" width="55.5703125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="55.5703125" style="9" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" style="9" customWidth="1"/>
+    <col min="27" max="27" width="55.5703125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="9" customWidth="1"/>
+    <col min="29" max="29" width="55.5703125" style="9" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="55.5703125" style="9" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" style="9" customWidth="1"/>
+    <col min="33" max="33" width="55.5703125" style="9" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" style="9" customWidth="1"/>
+    <col min="35" max="35" width="55.5703125" style="9" customWidth="1"/>
+    <col min="36" max="36" width="22.7109375" style="9" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -696,20 +691,19 @@
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="8"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -728,8 +722,9 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
-    </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -743,13 +738,12 @@
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -768,8 +762,9 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-    </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -791,18 +786,18 @@
       <c r="G3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -821,8 +816,9 @@
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
-    </row>
-    <row r="4" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="9"/>
+    </row>
+    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+1</f>
         <v>2</v>
@@ -845,18 +841,18 @@
       <c r="G4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -875,8 +871,9 @@
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
-    </row>
-    <row r="5" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="9"/>
+    </row>
+    <row r="5" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A24" si="0">A4+1</f>
         <v>3</v>
@@ -899,18 +896,18 @@
       <c r="G5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -929,8 +926,9 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -953,18 +951,18 @@
       <c r="G6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -983,8 +981,9 @@
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
-    </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="9"/>
+    </row>
+    <row r="7" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1007,18 +1006,18 @@
       <c r="G7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1037,8 +1036,9 @@
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
-    </row>
-    <row r="8" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="9"/>
+    </row>
+    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1061,18 +1061,18 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -1091,8 +1091,9 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
-    </row>
-    <row r="9" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="9"/>
+    </row>
+    <row r="9" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1115,18 +1116,18 @@
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -1145,8 +1146,9 @@
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
-    </row>
-    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="9"/>
+    </row>
+    <row r="10" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1169,18 +1171,18 @@
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -1199,8 +1201,9 @@
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
-    </row>
-    <row r="11" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="9"/>
+    </row>
+    <row r="11" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1223,18 +1226,20 @@
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -1253,8 +1258,9 @@
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
-    </row>
-    <row r="12" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="9"/>
+    </row>
+    <row r="12" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1271,24 +1277,26 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -1307,8 +1315,9 @@
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
-    </row>
-    <row r="13" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="9"/>
+    </row>
+    <row r="13" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1325,24 +1334,26 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -1361,8 +1372,9 @@
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
-    </row>
-    <row r="14" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="9"/>
+    </row>
+    <row r="14" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1379,24 +1391,26 @@
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1415,8 +1429,9 @@
       <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
-    </row>
-    <row r="15" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="9"/>
+    </row>
+    <row r="15" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1433,24 +1448,26 @@
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -1469,8 +1486,9 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
-    </row>
-    <row r="16" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="9"/>
+    </row>
+    <row r="16" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1487,24 +1505,26 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -1523,8 +1543,9 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
-    </row>
-    <row r="17" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="9"/>
+    </row>
+    <row r="17" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1541,24 +1562,26 @@
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -1577,8 +1600,9 @@
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
-    </row>
-    <row r="18" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="9"/>
+    </row>
+    <row r="18" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1601,18 +1625,20 @@
       <c r="G18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -1631,8 +1657,9 @@
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
-    </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="9"/>
+    </row>
+    <row r="19" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1655,18 +1682,18 @@
       <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -1685,8 +1712,9 @@
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
-    </row>
-    <row r="20" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="9"/>
+    </row>
+    <row r="20" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1709,18 +1737,18 @@
       <c r="G20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -1739,8 +1767,9 @@
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
-    </row>
-    <row r="21" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="9"/>
+    </row>
+    <row r="21" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1763,18 +1792,18 @@
       <c r="G21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -1793,8 +1822,9 @@
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="9"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1817,11 +1847,11 @@
       <c r="G22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="I22" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1844,11 +1874,11 @@
       <c r="G23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="I23" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1871,11 +1901,11 @@
       <c r="G24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I24" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1884,7 +1914,7 @@
       <c r="G25" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="B3:I24">
+  <sortState ref="B3:J24">
     <sortCondition ref="B3:B24"/>
     <sortCondition ref="C3:C24"/>
   </sortState>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1277,11 +1277,11 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>45</v>
@@ -1334,11 +1334,11 @@
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>21</v>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>45</v>
@@ -1391,11 +1391,11 @@
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>21</v>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>45</v>
@@ -1505,11 +1505,11 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>21</v>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>45</v>
@@ -1562,11 +1562,11 @@
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>21</v>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>45</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
   <si>
     <t>altova</t>
   </si>
@@ -166,23 +166,31 @@
     <t>not allowed</t>
   </si>
   <si>
-    <t>TODO test at spur</t>
-  </si>
-  <si>
-    <t>*Need to exclude bin &amp; obj folders when performing at the project node</t>
+    <t>TODO not working at home or spur
+IDM_VS_CTXT_CODEWIN</t>
+  </si>
+  <si>
+    <t>TODO not working at home or spur
+IDM_VS_CTXT_ITEMNODE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -229,7 +237,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +280,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,34 +295,31 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -332,16 +331,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -635,43 +637,42 @@
     <col min="1" max="1" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="55.5703125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="55.5703125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="55.5703125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="55.5703125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" style="9" customWidth="1"/>
-    <col min="21" max="21" width="55.5703125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" style="9" customWidth="1"/>
-    <col min="23" max="23" width="55.5703125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="55.5703125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" style="9" customWidth="1"/>
-    <col min="27" max="27" width="55.5703125" style="9" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="9" customWidth="1"/>
-    <col min="29" max="29" width="55.5703125" style="9" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" style="9" customWidth="1"/>
-    <col min="31" max="31" width="55.5703125" style="9" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" style="9" customWidth="1"/>
-    <col min="33" max="33" width="55.5703125" style="9" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" style="9" customWidth="1"/>
-    <col min="35" max="35" width="55.5703125" style="9" customWidth="1"/>
-    <col min="36" max="36" width="22.7109375" style="9" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="55.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="55.5703125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="55.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="55.5703125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="55.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="55.5703125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="55.5703125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="9" customWidth="1"/>
+    <col min="24" max="24" width="55.5703125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" style="9" customWidth="1"/>
+    <col min="26" max="26" width="55.5703125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" style="9" customWidth="1"/>
+    <col min="28" max="28" width="55.5703125" style="9" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" style="9" customWidth="1"/>
+    <col min="30" max="30" width="55.5703125" style="9" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" style="9" customWidth="1"/>
+    <col min="32" max="32" width="55.5703125" style="9" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="55.5703125" style="9" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="9" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -691,19 +692,20 @@
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="I1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -722,9 +724,8 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -738,12 +739,13 @@
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -762,9 +764,8 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-    </row>
-    <row r="3" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -786,18 +787,18 @@
       <c r="G3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -816,9 +817,8 @@
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-    </row>
-    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+1</f>
         <v>2</v>
@@ -841,18 +841,18 @@
       <c r="G4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -871,9 +871,8 @@
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-    </row>
-    <row r="5" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A24" si="0">A4+1</f>
         <v>3</v>
@@ -896,18 +895,18 @@
       <c r="G5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -926,9 +925,8 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -951,18 +949,18 @@
       <c r="G6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -981,9 +979,8 @@
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-    </row>
-    <row r="7" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1006,18 +1003,18 @@
       <c r="G7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -1036,9 +1033,8 @@
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-    </row>
-    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1061,18 +1057,18 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -1091,9 +1087,8 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-    </row>
-    <row r="9" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1116,18 +1111,18 @@
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -1146,9 +1141,8 @@
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-    </row>
-    <row r="10" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1171,18 +1165,18 @@
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -1201,9 +1195,8 @@
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-    </row>
-    <row r="11" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1226,20 +1219,18 @@
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -1258,9 +1249,8 @@
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-    </row>
-    <row r="12" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1283,20 +1273,18 @@
       <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -1315,9 +1303,8 @@
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-    </row>
-    <row r="13" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1340,20 +1327,18 @@
       <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -1372,9 +1357,8 @@
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-    </row>
-    <row r="14" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1397,20 +1381,18 @@
       <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1429,9 +1411,8 @@
       <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1454,20 +1435,18 @@
       <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -1486,9 +1465,8 @@
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-    </row>
-    <row r="16" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1511,20 +1489,18 @@
       <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -1543,9 +1519,8 @@
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-    </row>
-    <row r="17" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1568,20 +1543,18 @@
       <c r="G17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -1600,9 +1573,8 @@
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-    </row>
-    <row r="18" spans="1:36" s="6" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:35" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1613,32 +1585,30 @@
       <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -1657,9 +1627,8 @@
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-    </row>
-    <row r="19" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1682,18 +1651,18 @@
       <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -1712,9 +1681,8 @@
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-    </row>
-    <row r="20" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1737,18 +1705,18 @@
       <c r="G20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -1767,9 +1735,8 @@
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-    </row>
-    <row r="21" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1792,18 +1759,18 @@
       <c r="G21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -1822,9 +1789,8 @@
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1847,11 +1813,11 @@
       <c r="G22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1874,11 +1840,11 @@
       <c r="G23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1890,22 +1856,22 @@
         <v>35</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="81">
   <si>
     <t>emacs</t>
   </si>
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -530,6 +530,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2184,7 +2193,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2884,17 +2893,17 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
     </row>
-    <row r="13" spans="1:36" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:36" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2909,36 +2918,36 @@
       <c r="H13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -3280,7 +3289,9 @@
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
@@ -3334,7 +3345,9 @@
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" s="13" t="s">
         <v>37</v>
       </c>
@@ -3388,6 +3401,9 @@
       <c r="A22" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="B22" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="13" t="s">
         <v>38</v>
       </c>
@@ -3439,17 +3455,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:36" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -3464,9 +3480,36 @@
       <c r="H24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="24" t="s">
         <v>21</v>
       </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C25" s="13"/>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -538,6 +538,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2193,7 +2199,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3455,61 +3461,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:36" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="14" t="s">
+    <row r="24" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="24" t="s">
+      <c r="E24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C25" s="13"/>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="78">
   <si>
     <t>emacs</t>
   </si>
@@ -175,18 +175,6 @@
     <t>chrome canary</t>
   </si>
   <si>
-    <t>update desc</t>
-  </si>
-  <si>
-    <t>update app</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>n/a (failing to open the app)</t>
-  </si>
-  <si>
     <t>No. of installs</t>
   </si>
   <si>
@@ -278,6 +266,9 @@
   </si>
   <si>
     <t>  Open in TreeSize Professional</t>
+  </si>
+  <si>
+    <t>opens the folder, not its contents, as per sublime text ?</t>
   </si>
 </sst>
 </file>
@@ -460,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -538,9 +529,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2196,84 +2184,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="55.5703125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="55.5703125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="55.5703125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="55.5703125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="55.5703125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
-    <col min="23" max="23" width="55.5703125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" style="8" customWidth="1"/>
-    <col min="25" max="25" width="55.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" style="8" customWidth="1"/>
-    <col min="27" max="27" width="55.5703125" style="8" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="8" customWidth="1"/>
-    <col min="29" max="29" width="55.5703125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" style="8" customWidth="1"/>
-    <col min="31" max="31" width="55.5703125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" style="8" customWidth="1"/>
-    <col min="33" max="33" width="55.5703125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="55.5703125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="22.7109375" style="8" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.5703125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="55.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="55.5703125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="55.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="55.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="55.5703125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="55.5703125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="8" customWidth="1"/>
+    <col min="24" max="24" width="55.5703125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="55.5703125" style="8" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="55.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" style="8" customWidth="1"/>
+    <col min="30" max="30" width="55.5703125" style="8" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" style="8" customWidth="1"/>
+    <col min="32" max="32" width="55.5703125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="8" customWidth="1"/>
+    <col min="34" max="34" width="55.5703125" style="8" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="8" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
@@ -2292,89 +2284,92 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-    </row>
-    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+    </row>
+    <row r="3" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -2393,44 +2388,41 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-    </row>
-    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>13</v>
+    </row>
+    <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -2449,44 +2441,41 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-    </row>
-    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2505,44 +2494,41 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-    </row>
-    <row r="6" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
+    </row>
+    <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -2561,44 +2547,41 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-    </row>
-    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="G7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -2617,44 +2600,41 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-    </row>
-    <row r="8" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
+    </row>
+    <row r="8" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="G8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -2673,44 +2653,41 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-    </row>
-    <row r="9" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -2729,44 +2706,41 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-    </row>
-    <row r="10" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
+    </row>
+    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -2785,44 +2759,41 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-    </row>
-    <row r="11" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
+    </row>
+    <row r="11" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -2841,156 +2812,145 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-    </row>
-    <row r="12" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:35" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+    </row>
+    <row r="13" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-    </row>
-    <row r="13" spans="1:36" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+    </row>
+    <row r="14" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-    </row>
-    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -3009,44 +2969,41 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-    </row>
-    <row r="15" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -3065,44 +3022,39 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-    </row>
-    <row r="16" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>13</v>
+    </row>
+    <row r="16" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -3121,44 +3073,39 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-    </row>
-    <row r="17" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="13" t="s">
+    </row>
+    <row r="17" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -3177,44 +3124,39 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-    </row>
-    <row r="18" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="13" t="s">
+    </row>
+    <row r="18" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
@@ -3233,44 +3175,39 @@
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-    </row>
-    <row r="19" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="13" t="s">
+    </row>
+    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -3289,44 +3226,39 @@
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-    </row>
-    <row r="20" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="13" t="s">
+    </row>
+    <row r="20" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
@@ -3345,185 +3277,119 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-    </row>
-    <row r="21" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="13" t="s">
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="G22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="13" t="s">
+    </row>
+    <row r="23" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="D23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="E23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="F23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3546,25 +3412,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3572,7 +3438,7 @@
         <v>544</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -3581,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="18">
         <v>0</v>
@@ -3595,7 +3461,7 @@
         <v>421</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="18">
         <v>0</v>
@@ -3604,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" s="18">
         <v>0</v>
@@ -3618,7 +3484,7 @@
         <v>419</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -3627,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" s="18">
         <v>0</v>
@@ -3641,7 +3507,7 @@
         <v>326</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -3650,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="18">
         <v>0</v>
@@ -3664,7 +3530,7 @@
         <v>251</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -3673,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G6" s="18">
         <v>0</v>
@@ -3687,7 +3553,7 @@
         <v>208</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -3696,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="18">
         <v>0</v>
@@ -3710,7 +3576,7 @@
         <v>199</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18">
         <v>0</v>
@@ -3719,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
@@ -3733,7 +3599,7 @@
         <v>188</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18">
         <v>0</v>
@@ -3742,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
@@ -3756,7 +3622,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="18">
         <v>0</v>
@@ -3765,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -3779,7 +3645,7 @@
         <v>163</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
@@ -3788,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" s="18">
         <v>0</v>
@@ -3802,7 +3668,7 @@
         <v>142</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18">
         <v>0</v>
@@ -3811,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -3825,7 +3691,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -3834,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -3848,7 +3714,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="18">
         <v>0</v>
@@ -3857,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G14" s="18">
         <v>0</v>
@@ -3871,7 +3737,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="18">
         <v>0</v>
@@ -3880,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -3894,7 +3760,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="18">
         <v>0</v>
@@ -3903,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -3917,7 +3783,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="18">
         <v>0</v>
@@ -3926,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="18">
         <v>0</v>
@@ -3940,7 +3806,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" s="18">
         <v>0</v>
@@ -3949,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -3963,7 +3829,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="18">
         <v>0</v>
@@ -3972,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G19" s="18">
         <v>0</v>
@@ -3986,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="18">
         <v>0</v>
@@ -3995,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G20" s="18">
         <v>0</v>
@@ -4009,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" s="18">
         <v>0</v>
@@ -4018,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
@@ -4032,7 +3898,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" s="18">
         <v>0</v>
@@ -4041,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G22" s="18">
         <v>0</v>
@@ -4055,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" s="18">
         <v>0</v>
@@ -4064,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G23" s="18">
         <v>0</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
   <si>
     <t>emacs</t>
   </si>
@@ -268,7 +268,16 @@
     <t>  Open in TreeSize Professional</t>
   </si>
   <si>
-    <t>opens the folder, not its contents, as per sublime text ?</t>
+    <t>opens the folder, not contents, as per sublime text ?</t>
+  </si>
+  <si>
+    <t>could be done in future, some projects open as a project, some don't</t>
+  </si>
+  <si>
+    <t>yes already does this for free</t>
+  </si>
+  <si>
+    <t>test at spur</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -521,15 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2187,7 +2187,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2198,7 @@
     <col min="4" max="4" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.5703125" style="12" customWidth="1"/>
@@ -2230,7 +2230,7 @@
     <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2304,9 @@
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
@@ -2813,7 +2815,7 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
     </row>
-    <row r="12" spans="1:35" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -2832,37 +2834,39 @@
       <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
     </row>
     <row r="13" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -3042,7 +3046,9 @@
       <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H16" s="12" t="s">
         <v>18</v>
       </c>
@@ -3093,7 +3099,9 @@
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H17" s="12" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +3152,9 @@
       <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H18" s="12" t="s">
         <v>18</v>
       </c>
@@ -3195,7 +3205,9 @@
       <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H19" s="12" t="s">
         <v>18</v>
       </c>
@@ -3246,7 +3258,9 @@
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H20" s="12" t="s">
         <v>18</v>
       </c>
@@ -3297,6 +3311,9 @@
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G21" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H21" s="12" t="s">
         <v>18</v>
       </c>
@@ -3327,24 +3344,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="24" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="24" t="s">
         <v>27</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>21</v>

--- a/src/VisualStudioMarketPlaceAssets/notes.xlsx
+++ b/src/VisualStudioMarketPlaceAssets/notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
   <si>
     <t>emacs</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>test at spur</t>
+  </si>
+  <si>
+    <t>atom</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -532,6 +535,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2184,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2203,7 @@
     <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
@@ -2340,29 +2346,27 @@
     </row>
     <row r="3" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>40</v>
+      <c r="E3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="10"/>
@@ -2393,10 +2397,10 @@
     </row>
     <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2404,11 +2408,11 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>40</v>
@@ -2446,10 +2450,10 @@
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2457,11 +2461,11 @@
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>40</v>
@@ -2499,10 +2503,10 @@
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2510,17 +2514,17 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -2550,12 +2554,12 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
     </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2573,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -2605,10 +2609,10 @@
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2626,7 +2630,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2658,10 +2662,10 @@
     </row>
     <row r="9" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2669,17 +2673,17 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>40</v>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -2709,9 +2713,9 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
     </row>
-    <row r="10" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>13</v>
@@ -2764,10 +2768,10 @@
     </row>
     <row r="11" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2775,17 +2779,17 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2815,30 +2819,30 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
     </row>
-    <row r="12" spans="1:35" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>18</v>
+    <row r="12" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2848,50 +2852,50 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+    </row>
+    <row r="13" spans="1:35" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2901,29 +2905,29 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
     </row>
     <row r="14" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>14</v>
@@ -2976,10 +2980,10 @@
     </row>
     <row r="15" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -2987,17 +2991,17 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>40</v>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3029,10 +3033,10 @@
     </row>
     <row r="16" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -3040,17 +3044,17 @@
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
+      <c r="E16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3082,7 +3086,7 @@
     </row>
     <row r="17" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>15</v>
@@ -3133,9 +3137,9 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -3188,7 +3192,7 @@
     </row>
     <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>15</v>
@@ -3241,7 +3245,7 @@
     </row>
     <row r="20" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>15</v>
@@ -3292,9 +3296,9 @@
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>15</v>
@@ -3317,13 +3321,40 @@
       <c r="H21" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -3338,78 +3369,104 @@
         <v>27</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="24" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
